--- a/Control_Unit/assets/truth_table.xlsx
+++ b/Control_Unit/assets/truth_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Documents\RISC-V\control_unit\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84804BD-45AF-4A7B-A0BD-D1FA77E3F819}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8911EAAE-51E9-41A4-9809-BBB0687F1907}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="5355" windowWidth="21600" windowHeight="11385" xr2:uid="{C275EF26-4B58-43A6-85CE-BF07BF39F171}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C275EF26-4B58-43A6-85CE-BF07BF39F171}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>I/O</t>
   </si>
@@ -99,12 +99,6 @@
     <t>ALUOP1</t>
   </si>
   <si>
-    <t>ALUOP3</t>
-  </si>
-  <si>
-    <t>ALUOP2</t>
-  </si>
-  <si>
     <t>ALUOP0</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>New Hardware not in book</t>
+  </si>
+  <si>
+    <t>SD &amp; LD</t>
+  </si>
+  <si>
+    <t>ALU</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,6 +211,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,7 +537,7 @@
       <pane xSplit="5" ySplit="13" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,23 +568,23 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -619,7 +622,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -655,7 +658,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -691,7 +694,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -727,7 +730,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -763,7 +766,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -799,7 +802,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -835,7 +838,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -871,7 +874,7 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -885,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -905,7 +908,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -939,7 +942,7 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -973,7 +976,7 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1010,7 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,9 +1044,9 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1074,77 +1077,120 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="A19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Control_Unit/assets/truth_table.xlsx
+++ b/Control_Unit/assets/truth_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Documents\RISC-V\control_unit\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8911EAAE-51E9-41A4-9809-BBB0687F1907}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57772DF-86DA-4120-92B4-92C8035FA668}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C275EF26-4B58-43A6-85CE-BF07BF39F171}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>I/O</t>
   </si>
@@ -130,13 +130,16 @@
   </si>
   <si>
     <t>ALU</t>
+  </si>
+  <si>
+    <t>Branch/PCSrc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +160,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +201,28 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -194,12 +245,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,10 +327,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,13 +679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4A1155-E9E0-45B3-8231-9784CA2C7889}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="5" ySplit="13" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +693,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +731,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -621,8 +769,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -657,8 +805,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -693,8 +841,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -729,8 +877,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -765,8 +913,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -801,8 +949,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -837,8 +985,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -856,25 +1004,27 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -890,16 +1040,16 @@
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="11">
         <v>0</v>
       </c>
       <c r="K10" s="4">
@@ -907,8 +1057,8 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -924,25 +1074,25 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
         <v>1</v>
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -958,25 +1108,25 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
         <v>0</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -992,27 +1142,27 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
         <v>0</v>
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1026,143 +1176,147 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
         <v>0</v>
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" t="s">
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1176,21 +1330,61 @@
         <v>28</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Control_Unit/assets/truth_table.xlsx
+++ b/Control_Unit/assets/truth_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Documents\RISC-V\control_unit\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57772DF-86DA-4120-92B4-92C8035FA668}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689D68BC-7D12-45F9-8A26-D678E49C6A8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C275EF26-4B58-43A6-85CE-BF07BF39F171}"/>
+    <workbookView xWindow="915" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{C275EF26-4B58-43A6-85CE-BF07BF39F171}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,37 +327,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +688,7 @@
       <pane xSplit="5" ySplit="13" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +735,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -770,7 +773,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -806,7 +809,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -842,7 +845,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -878,7 +881,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -914,7 +917,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -950,7 +953,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -986,7 +989,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1004,7 +1007,7 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>0</v>
       </c>
       <c r="H9" s="5">
@@ -1013,18 +1016,18 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1043,7 @@
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1049,7 +1052,7 @@
       <c r="I10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>0</v>
       </c>
       <c r="K10" s="4">
@@ -1058,7 +1061,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1074,7 +1077,7 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>0</v>
       </c>
       <c r="H11" s="5">
@@ -1083,16 +1086,16 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
         <v>1</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1108,7 +1111,7 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>0</v>
       </c>
       <c r="H12" s="5">
@@ -1117,16 +1120,16 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>0</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>0</v>
       </c>
       <c r="H13" s="5">
@@ -1151,16 +1154,16 @@
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1176,7 +1179,7 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>1</v>
       </c>
       <c r="H14" s="5">
@@ -1185,32 +1188,32 @@
       <c r="I14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <v>0</v>
       </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="5">
@@ -1219,104 +1222,104 @@
       <c r="I15" s="5">
         <v>1</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="16">
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
-        <v>1</v>
-      </c>
-      <c r="K17" s="16">
-        <v>0</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1337,54 +1340,54 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="3">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
